--- a/biology/Botanique/Rhamnus_lycioides/Rhamnus_lycioides.xlsx
+++ b/biology/Botanique/Rhamnus_lycioides/Rhamnus_lycioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rhamnus lycioides, l' Aubépine noire, l' Argousier européen  ou encore l' Argousier de la Méditerranée, est une espèce de plantes à fleurs de la famille des Rhamnaceae. C’est un arbuste atteignant environ 1 mètre de haut[2]. On le trouve dans la région méditerranéenne  dans le sud de l'Europe et en Afrique du Nord. Son nom scientifique lycioides fait référence à sa ressemblance avec le genre botanique Lycium.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhamnus lycioides, l' Aubépine noire, l' Argousier européen  ou encore l' Argousier de la Méditerranée, est une espèce de plantes à fleurs de la famille des Rhamnaceae. C’est un arbuste atteignant environ 1 mètre de haut. On le trouve dans la région méditerranéenne  dans le sud de l'Europe et en Afrique du Nord. Son nom scientifique lycioides fait référence à sa ressemblance avec le genre botanique Lycium.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>La description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhamnus lycioides est un arbuste à croissance lente, adapté au climat méditerranéen sec. C'est un arbuste à feuilles caduques ou à feuilles persistantes de 1,5–3 mètres de haut à la forme enchevêtrée, épineuse et à plusieurs branches. L'écorce est grisâtre et les jeunes tiges sont surmontées d'une épine.
 Les feuilles sont vert clair et mesurent 0,5 à 3,5 cm de long et 0,3 à 1 pouce de large. La pointe est obtuse à apiculée. La feuille est entière, linéaire à obovale, glabre, étroite et allongée, parfois légèrement élargie vers le sommet. Elles sont parfois coriaces et persistantes. Les nervures latérales ont peu ou pas de marques sur le dessous.
@@ -546,15 +560,17 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cinq sous-espèces sont reconnues[3] :
-Rhamnus lycioides subsp. lycioides [4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cinq sous-espèces sont reconnues :
+Rhamnus lycioides subsp. lycioides 
 Rhamnus lycioides subsp. atlantica (Murb.) Jahand. &amp; Maire
-Rhamnus lycioides subsp. graeca (Boiss. &amp; Reut.) Tutin [5]
-Rhamnus lycioides subsp. oleoides (L.) Jahand. &amp; Maire [6]
-Rhamnus lycioides subsp. Velutina (Boiss.) Tutin [7]
-Rhamnus lycioides subsp. atlantica (Murb.) Jahand. &amp; Maire est maintenant connu sous le nom de Rhamnus atlantica[3].
+Rhamnus lycioides subsp. graeca (Boiss. &amp; Reut.) Tutin 
+Rhamnus lycioides subsp. oleoides (L.) Jahand. &amp; Maire 
+Rhamnus lycioides subsp. Velutina (Boiss.) Tutin 
+Rhamnus lycioides subsp. atlantica (Murb.) Jahand. &amp; Maire est maintenant connu sous le nom de Rhamnus atlantica.
 </t>
         </is>
       </c>
@@ -583,7 +599,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La péninsule ibérique est répartie dans le centre, l'est et le sud et son habitat naturel est constitué de forêts sclérophylles et de bois de pins, de chênes, de chênes verts et de chêne kermès.
 L'espèce est présente dans la région méditerranéenne, en particulier en Espagne et dans les îles Baléares. Il pousse également sur les îles et îlots méditerranéens, en Afrique du Nord, dans la péninsule des Apennins et dans l'ex-Yougoslavie sur des sols rocheux et pauvres en éléments nutritifs.
